--- a/VersionRecords/Version 5.0.0.2 20160908/版本Bug和特性计划及评审表v5.0.0.2.xlsx
+++ b/VersionRecords/Version 5.0.0.2 20160908/版本Bug和特性计划及评审表v5.0.0.2.xlsx
@@ -5,25 +5,26 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.0.0.2 20160908\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Mogo_Doc\VersionRecords\Version 5.0.0.2 20160908\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.0.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.0.2 新特性|Fix Bug'!$A$1:$T$31</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="117">
   <si>
     <t>No</t>
   </si>
@@ -104,13 +105,406 @@
   </si>
   <si>
     <t>修正负责人</t>
+  </si>
+  <si>
+    <t>收款列表增加定金账单统计</t>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>蒙先铭</t>
+    <rPh sb="0" eb="1">
+      <t>m'x'm</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+    <rPh sb="0" eb="1">
+      <t>jie'bao'zu</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超、陈术</t>
+    <rPh sb="0" eb="1">
+      <t>shi'chao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chen'shu</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>补录租约兼容旧账单计划</t>
+  </si>
+  <si>
+    <t>房东PC/房东APP</t>
+    <rPh sb="5" eb="6">
+      <t>fang'dong</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改补录租约账单计划不可编辑</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>补录租约开始时间&lt;=结束时间的校验</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>补录租约“租约账单已清”改为“账单已结清”</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <rPh sb="0" eb="1">
+      <t>cui'b</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择租金已结清，在详情下期收租日显示为2100/01/01</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>王祥毅</t>
+    <rPh sb="0" eb="1">
+      <t>w'x'y</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>账务页面 账务页面所有金额前的“￥”全部去除</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>王辉</t>
+    <rPh sb="0" eb="1">
+      <t>wang'hui</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>账务页面 左侧退房款各类项目为已支付状态</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>账务页面 各类退房款的备注的遗漏补齐：“减免账单”备注为“退房减免账单” +【，输入备注】，“记为坏账”备注为“退房产生坏账”+【，输入备注】</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'wu</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>账务页面 房源地址修改</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>账务页面 左右侧表格鼠标移入若可点击则为“小手”图标</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约单列表-房源地址</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起签约收租日保存不正确</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧账单计划-下期收日-处理错误（配合处理补录租约，历史数据账单计划）</t>
+    <rPh sb="32" eb="33">
+      <t>hua</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定发起签约，定金押金校验修改</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情无法查看补录租约--账单已结清数据</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东端显示蘑菇宝贷款记录列表查询问题修复</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东App</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙伟</t>
+  </si>
+  <si>
+    <t>闪电组</t>
+  </si>
+  <si>
+    <t>纪维玉、王云飞</t>
+    <rPh sb="0" eb="1">
+      <t>shi'chao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chen'shu</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC品牌首页Banner尺寸调整</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>李健</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复了官网上部“立即找房”的鼠标点击范围</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC注册功能了，放开了17段的限制</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>裔玲玲</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复了租客PC地图找房，多次点击搜索出来的房源卡屏的问题</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>王龙国</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复了上海app下载页，鼠标移到立即找房，缺少单身公寓的问题</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>周云</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC房间详情页，放开了右侧登录、投诉建议功能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>裔玲玲</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复了租客PC蘑菇社区的文章百度收录问题</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪林强</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改上次照片orgid为空导致无法保存照片</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐文瑞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>李萌</t>
+    <rPh sb="0" eb="1">
+      <t>shi'chaochen'shu</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改发起补录租约页面跳转</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改左边菜单房态相关链接在当前页打开</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复bs修改房态时，无法加载上一次保存的备注信息</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东BS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>安栋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房态图图标价格及租客显示逻辑修正：未出租房源显示官网标价而非订单价格；不显示租客姓名。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩淑芳</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端：公测环境（hbgc）显示顶部公测提示，其他环境都不显示</t>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -178,6 +572,19 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Inherit"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -298,7 +705,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -389,9 +796,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -406,6 +810,39 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="7" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -788,34 +1225,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="44.125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="12" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="44.109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="12" customWidth="1"/>
     <col min="4" max="4" width="27" style="12" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="23.875" style="12" customWidth="1"/>
-    <col min="11" max="12" width="11.875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="23.88671875" style="12" customWidth="1"/>
+    <col min="11" max="12" width="11.88671875" style="12" customWidth="1"/>
     <col min="13" max="13" width="9" style="13"/>
     <col min="14" max="14" width="23" style="13" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="12.125" style="14" customWidth="1"/>
-    <col min="17" max="18" width="17.625" style="14" customWidth="1"/>
-    <col min="19" max="19" width="51.625" style="13" customWidth="1"/>
-    <col min="20" max="20" width="8.875" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="14" customWidth="1"/>
+    <col min="17" max="18" width="17.6640625" style="14" customWidth="1"/>
+    <col min="19" max="19" width="51.6640625" style="13" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="9" customFormat="1" ht="28.8">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -874,151 +1311,305 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+    <row r="2" spans="1:20" s="42" customFormat="1" ht="15">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="M2" s="20"/>
-      <c r="N2" s="18"/>
+      <c r="N2" s="37"/>
       <c r="O2" s="20"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="23"/>
-    </row>
-    <row r="3" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="41"/>
+    </row>
+    <row r="3" spans="1:20" s="42" customFormat="1" ht="15">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I3" s="36"/>
+      <c r="J3" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="M3" s="20"/>
-      <c r="N3" s="18"/>
+      <c r="N3" s="37"/>
       <c r="O3" s="20"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="22"/>
-    </row>
-    <row r="4" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="41"/>
+    </row>
+    <row r="4" spans="1:20" s="42" customFormat="1" ht="15">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I4" s="36"/>
+      <c r="J4" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="M4" s="20"/>
-      <c r="N4" s="18"/>
+      <c r="N4" s="37"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="22"/>
-    </row>
-    <row r="5" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="41"/>
+    </row>
+    <row r="5" spans="1:20" s="42" customFormat="1" ht="15">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I5" s="36"/>
+      <c r="J5" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="M5" s="20"/>
-      <c r="N5" s="18"/>
+      <c r="N5" s="37"/>
       <c r="O5" s="20"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="22"/>
-    </row>
-    <row r="6" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="41"/>
+    </row>
+    <row r="6" spans="1:20" s="42" customFormat="1" ht="15">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="M6" s="20"/>
-      <c r="N6" s="18"/>
+      <c r="N6" s="37"/>
       <c r="O6" s="20"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="22"/>
-    </row>
-    <row r="7" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+    </row>
+    <row r="7" spans="1:20" s="42" customFormat="1" ht="30">
+      <c r="A7" s="29">
+        <v>6</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="M7" s="20"/>
-      <c r="N7" s="18"/>
+      <c r="N7" s="37"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="22"/>
-    </row>
-    <row r="8" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41"/>
+    </row>
+    <row r="8" spans="1:20" s="10" customFormat="1" ht="15">
+      <c r="A8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="M8" s="20"/>
       <c r="N8" s="18"/>
       <c r="O8" s="20"/>
@@ -1028,19 +1619,41 @@
       <c r="S8" s="24"/>
       <c r="T8" s="22"/>
     </row>
-    <row r="9" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+    <row r="9" spans="1:20" s="10" customFormat="1" ht="15">
+      <c r="A9" s="29">
+        <v>8</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I9" s="36"/>
+      <c r="J9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="M9" s="20"/>
       <c r="N9" s="18"/>
       <c r="O9" s="20"/>
@@ -1050,19 +1663,41 @@
       <c r="S9" s="24"/>
       <c r="T9" s="22"/>
     </row>
-    <row r="10" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+    <row r="10" spans="1:20" s="10" customFormat="1" ht="60">
+      <c r="A10" s="29">
+        <v>9</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I10" s="36"/>
+      <c r="J10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="M10" s="20"/>
       <c r="N10" s="18"/>
       <c r="O10" s="20"/>
@@ -1072,41 +1707,85 @@
       <c r="S10" s="24"/>
       <c r="T10" s="22"/>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+    <row r="11" spans="1:20" s="10" customFormat="1" ht="15">
+      <c r="A11" s="29">
+        <v>10</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="M11" s="20"/>
       <c r="N11" s="18"/>
       <c r="O11" s="20"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="23"/>
-    </row>
-    <row r="12" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="22"/>
+    </row>
+    <row r="12" spans="1:20" s="10" customFormat="1" ht="30">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I12" s="36"/>
+      <c r="J12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="M12" s="20"/>
       <c r="N12" s="18"/>
       <c r="O12" s="20"/>
@@ -1116,19 +1795,41 @@
       <c r="S12" s="24"/>
       <c r="T12" s="22"/>
     </row>
-    <row r="13" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
+    <row r="13" spans="1:20" s="10" customFormat="1" ht="15">
+      <c r="A13" s="29">
+        <v>12</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="M13" s="20"/>
       <c r="N13" s="18"/>
       <c r="O13" s="20"/>
@@ -1138,19 +1839,41 @@
       <c r="S13" s="24"/>
       <c r="T13" s="22"/>
     </row>
-    <row r="14" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+    <row r="14" spans="1:20" s="10" customFormat="1" ht="15">
+      <c r="A14" s="29">
+        <v>13</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I14" s="36"/>
+      <c r="J14" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="M14" s="20"/>
       <c r="N14" s="18"/>
       <c r="O14" s="20"/>
@@ -1160,19 +1883,41 @@
       <c r="S14" s="24"/>
       <c r="T14" s="22"/>
     </row>
-    <row r="15" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
+    <row r="15" spans="1:20" s="10" customFormat="1" ht="28.8">
+      <c r="A15" s="29">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I15" s="36"/>
+      <c r="J15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="M15" s="20"/>
       <c r="N15" s="18"/>
       <c r="O15" s="20"/>
@@ -1182,19 +1927,41 @@
       <c r="S15" s="24"/>
       <c r="T15" s="22"/>
     </row>
-    <row r="16" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
+    <row r="16" spans="1:20" s="10" customFormat="1" ht="15">
+      <c r="A16" s="29">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I16" s="36"/>
+      <c r="J16" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="M16" s="20"/>
       <c r="N16" s="18"/>
       <c r="O16" s="20"/>
@@ -1204,19 +1971,41 @@
       <c r="S16" s="24"/>
       <c r="T16" s="22"/>
     </row>
-    <row r="17" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
+    <row r="17" spans="1:20" s="10" customFormat="1" ht="15">
+      <c r="A17" s="29">
+        <v>16</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I17" s="36"/>
+      <c r="J17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="M17" s="20"/>
       <c r="N17" s="18"/>
       <c r="O17" s="20"/>
@@ -1226,315 +2015,701 @@
       <c r="S17" s="24"/>
       <c r="T17" s="22"/>
     </row>
-    <row r="18" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
+    <row r="18" spans="1:20" s="42" customFormat="1" ht="30">
+      <c r="A18" s="29">
+        <v>17</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="M18" s="20"/>
-      <c r="N18" s="18"/>
+      <c r="N18" s="37"/>
       <c r="O18" s="20"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="22"/>
-    </row>
-    <row r="19" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="18"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="41"/>
+    </row>
+    <row r="19" spans="1:20" s="10" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A19" s="29">
+        <v>18</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="18">
+        <v>42621</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="18">
+        <v>42621</v>
+      </c>
       <c r="I19" s="16"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
+      <c r="J19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" s="18">
+        <v>42621</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
       <c r="S19" s="24"/>
       <c r="T19" s="22"/>
     </row>
-    <row r="20" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="20"/>
+    <row r="20" spans="1:20" s="8" customFormat="1" ht="15">
+      <c r="A20" s="29">
+        <v>19</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="18">
+        <v>42621</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="18">
+        <v>42621</v>
+      </c>
+      <c r="I20" s="34"/>
+      <c r="J20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="18">
+        <v>42621</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="22"/>
-    </row>
-    <row r="21" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="29"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="20"/>
+      <c r="S20" s="21"/>
+      <c r="T20"/>
+    </row>
+    <row r="21" spans="1:20" s="8" customFormat="1" ht="15">
+      <c r="A21" s="29">
+        <v>20</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="18">
+        <v>42621</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="18">
+        <v>42621</v>
+      </c>
+      <c r="I21" s="34"/>
+      <c r="J21" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="N21" s="18">
+        <v>42621</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="22"/>
-    </row>
-    <row r="22" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="29"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="22"/>
-    </row>
-    <row r="23" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="29"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="22"/>
-    </row>
-    <row r="24" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="22"/>
-    </row>
-    <row r="25" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="29"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="22"/>
-    </row>
-    <row r="26" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="22"/>
-    </row>
-    <row r="27" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="29"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="22"/>
-    </row>
-    <row r="28" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="29"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="22"/>
-    </row>
-    <row r="29" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="29"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="22"/>
-    </row>
-    <row r="30" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="29"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="22"/>
-    </row>
-    <row r="31" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="29"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="22"/>
-    </row>
-    <row r="32" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="S21" s="21"/>
+      <c r="T21"/>
+    </row>
+    <row r="22" spans="1:20" s="8" customFormat="1" ht="30">
+      <c r="A22" s="29">
+        <v>21</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="18">
+        <v>42621</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="18">
+        <v>42621</v>
+      </c>
+      <c r="I22" s="34"/>
+      <c r="J22" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" s="18">
+        <v>42621</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="21"/>
+      <c r="T22"/>
+    </row>
+    <row r="23" spans="1:20" s="8" customFormat="1" ht="30">
+      <c r="A23" s="29">
+        <v>22</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="18">
+        <v>42621</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="18">
+        <v>42621</v>
+      </c>
+      <c r="I23" s="34"/>
+      <c r="J23" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="N23" s="18">
+        <v>42621</v>
+      </c>
+      <c r="O23" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="21"/>
+      <c r="T23"/>
+    </row>
+    <row r="24" spans="1:20" s="8" customFormat="1" ht="30">
+      <c r="A24" s="29">
+        <v>23</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="18">
+        <v>42621</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="18">
+        <v>42621</v>
+      </c>
+      <c r="I24" s="34"/>
+      <c r="J24" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="N24" s="18">
+        <v>42621</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="21"/>
+      <c r="T24"/>
+    </row>
+    <row r="25" spans="1:20" s="8" customFormat="1" ht="15">
+      <c r="A25" s="29">
+        <v>24</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="18">
+        <v>42621</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="18">
+        <v>42621</v>
+      </c>
+      <c r="I25" s="34"/>
+      <c r="J25" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="N25" s="18">
+        <v>42621</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="21"/>
+      <c r="T25"/>
+    </row>
+    <row r="26" spans="1:20" s="42" customFormat="1" ht="15">
+      <c r="A26" s="29">
+        <v>25</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I26" s="36"/>
+      <c r="J26" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="N26" s="37">
+        <v>42621</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="41"/>
+    </row>
+    <row r="27" spans="1:20" s="42" customFormat="1" ht="15">
+      <c r="A27" s="29">
+        <v>26</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I27" s="36"/>
+      <c r="J27" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="N27" s="37">
+        <v>42621</v>
+      </c>
+      <c r="O27" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="41"/>
+    </row>
+    <row r="28" spans="1:20" s="42" customFormat="1" ht="15">
+      <c r="A28" s="29">
+        <v>27</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I28" s="36"/>
+      <c r="J28" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="K28" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="N28" s="37">
+        <v>42621</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="41"/>
+    </row>
+    <row r="29" spans="1:20" s="42" customFormat="1" ht="30">
+      <c r="A29" s="29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I29" s="36"/>
+      <c r="J29" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="N29" s="37">
+        <v>42621</v>
+      </c>
+      <c r="O29" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="41"/>
+    </row>
+    <row r="30" spans="1:20" s="42" customFormat="1" ht="30">
+      <c r="A30" s="29">
+        <v>29</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I30" s="36"/>
+      <c r="J30" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="N30" s="37">
+        <v>42621</v>
+      </c>
+      <c r="O30" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="41"/>
+    </row>
+    <row r="31" spans="1:20" s="42" customFormat="1" ht="15">
+      <c r="A31" s="29">
+        <v>30</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="37">
+        <v>42621</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="37">
+        <v>42621</v>
+      </c>
+      <c r="I31" s="36"/>
+      <c r="J31" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K31" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="N31" s="37">
+        <v>42621</v>
+      </c>
+      <c r="O31" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="41"/>
+    </row>
+    <row r="32" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A32" s="29"/>
       <c r="B32" s="17"/>
       <c r="C32" s="16"/>
@@ -1550,13 +2725,13 @@
       <c r="M32" s="20"/>
       <c r="N32" s="18"/>
       <c r="O32" s="20"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
       <c r="S32" s="24"/>
       <c r="T32" s="22"/>
     </row>
-    <row r="33" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A33" s="29"/>
       <c r="B33" s="17"/>
       <c r="C33" s="16"/>
@@ -1572,13 +2747,13 @@
       <c r="M33" s="20"/>
       <c r="N33" s="18"/>
       <c r="O33" s="20"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
       <c r="S33" s="24"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A34" s="29"/>
       <c r="B34" s="17"/>
       <c r="C34" s="16"/>
@@ -1594,13 +2769,13 @@
       <c r="M34" s="20"/>
       <c r="N34" s="18"/>
       <c r="O34" s="20"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
       <c r="S34" s="24"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A35" s="29"/>
       <c r="B35" s="17"/>
       <c r="C35" s="16"/>
@@ -1616,13 +2791,13 @@
       <c r="M35" s="20"/>
       <c r="N35" s="18"/>
       <c r="O35" s="20"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
       <c r="S35" s="24"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A36" s="29"/>
       <c r="B36" s="17"/>
       <c r="C36" s="16"/>
@@ -1638,13 +2813,13 @@
       <c r="M36" s="20"/>
       <c r="N36" s="18"/>
       <c r="O36" s="20"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
       <c r="S36" s="24"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A37" s="29"/>
       <c r="B37" s="17"/>
       <c r="C37" s="16"/>
@@ -1660,13 +2835,13 @@
       <c r="M37" s="20"/>
       <c r="N37" s="18"/>
       <c r="O37" s="20"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
       <c r="S37" s="24"/>
       <c r="T37" s="22"/>
     </row>
-    <row r="38" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A38" s="29"/>
       <c r="B38" s="17"/>
       <c r="C38" s="16"/>
@@ -1682,13 +2857,13 @@
       <c r="M38" s="20"/>
       <c r="N38" s="18"/>
       <c r="O38" s="20"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
       <c r="S38" s="24"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A39" s="29"/>
       <c r="B39" s="17"/>
       <c r="C39" s="16"/>
@@ -1704,13 +2879,13 @@
       <c r="M39" s="20"/>
       <c r="N39" s="18"/>
       <c r="O39" s="20"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
       <c r="S39" s="24"/>
       <c r="T39" s="22"/>
     </row>
-    <row r="40" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A40" s="29"/>
       <c r="B40" s="17"/>
       <c r="C40" s="16"/>
@@ -1726,13 +2901,13 @@
       <c r="M40" s="20"/>
       <c r="N40" s="18"/>
       <c r="O40" s="20"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
       <c r="S40" s="24"/>
       <c r="T40" s="22"/>
     </row>
-    <row r="41" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A41" s="29"/>
       <c r="B41" s="17"/>
       <c r="C41" s="16"/>
@@ -1748,13 +2923,13 @@
       <c r="M41" s="20"/>
       <c r="N41" s="18"/>
       <c r="O41" s="20"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
       <c r="S41" s="24"/>
       <c r="T41" s="22"/>
     </row>
-    <row r="42" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A42" s="29"/>
       <c r="B42" s="17"/>
       <c r="C42" s="16"/>
@@ -1776,7 +2951,7 @@
       <c r="S42" s="24"/>
       <c r="T42" s="22"/>
     </row>
-    <row r="43" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A43" s="29"/>
       <c r="B43" s="17"/>
       <c r="C43" s="16"/>
@@ -1798,7 +2973,7 @@
       <c r="S43" s="24"/>
       <c r="T43" s="22"/>
     </row>
-    <row r="44" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A44" s="29"/>
       <c r="B44" s="17"/>
       <c r="C44" s="16"/>
@@ -1820,7 +2995,7 @@
       <c r="S44" s="24"/>
       <c r="T44" s="22"/>
     </row>
-    <row r="45" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A45" s="29"/>
       <c r="B45" s="17"/>
       <c r="C45" s="16"/>
@@ -1842,7 +3017,7 @@
       <c r="S45" s="24"/>
       <c r="T45" s="22"/>
     </row>
-    <row r="46" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A46" s="29"/>
       <c r="B46" s="17"/>
       <c r="C46" s="16"/>
@@ -1864,7 +3039,7 @@
       <c r="S46" s="24"/>
       <c r="T46" s="22"/>
     </row>
-    <row r="47" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A47" s="29"/>
       <c r="B47" s="17"/>
       <c r="C47" s="16"/>
@@ -1886,7 +3061,7 @@
       <c r="S47" s="24"/>
       <c r="T47" s="22"/>
     </row>
-    <row r="48" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A48" s="29"/>
       <c r="B48" s="17"/>
       <c r="C48" s="16"/>
@@ -1908,7 +3083,7 @@
       <c r="S48" s="24"/>
       <c r="T48" s="22"/>
     </row>
-    <row r="49" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A49" s="29"/>
       <c r="B49" s="17"/>
       <c r="C49" s="16"/>
@@ -1930,7 +3105,7 @@
       <c r="S49" s="24"/>
       <c r="T49" s="22"/>
     </row>
-    <row r="50" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A50" s="29"/>
       <c r="B50" s="17"/>
       <c r="C50" s="16"/>
@@ -1952,7 +3127,7 @@
       <c r="S50" s="24"/>
       <c r="T50" s="22"/>
     </row>
-    <row r="51" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A51" s="29"/>
       <c r="B51" s="17"/>
       <c r="C51" s="16"/>
@@ -1974,7 +3149,7 @@
       <c r="S51" s="24"/>
       <c r="T51" s="22"/>
     </row>
-    <row r="52" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A52" s="29"/>
       <c r="B52" s="17"/>
       <c r="C52" s="16"/>
@@ -1996,7 +3171,7 @@
       <c r="S52" s="24"/>
       <c r="T52" s="22"/>
     </row>
-    <row r="53" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A53" s="29"/>
       <c r="B53" s="17"/>
       <c r="C53" s="16"/>
@@ -2018,7 +3193,7 @@
       <c r="S53" s="24"/>
       <c r="T53" s="22"/>
     </row>
-    <row r="54" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A54" s="29"/>
       <c r="B54" s="17"/>
       <c r="C54" s="16"/>
@@ -2040,7 +3215,7 @@
       <c r="S54" s="24"/>
       <c r="T54" s="22"/>
     </row>
-    <row r="55" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A55" s="29"/>
       <c r="B55" s="17"/>
       <c r="C55" s="16"/>
@@ -2062,7 +3237,7 @@
       <c r="S55" s="24"/>
       <c r="T55" s="22"/>
     </row>
-    <row r="56" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A56" s="29"/>
       <c r="B56" s="17"/>
       <c r="C56" s="16"/>
@@ -2084,7 +3259,7 @@
       <c r="S56" s="24"/>
       <c r="T56" s="22"/>
     </row>
-    <row r="57" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A57" s="29"/>
       <c r="B57" s="17"/>
       <c r="C57" s="16"/>
@@ -2106,7 +3281,7 @@
       <c r="S57" s="24"/>
       <c r="T57" s="22"/>
     </row>
-    <row r="58" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A58" s="29"/>
       <c r="B58" s="17"/>
       <c r="C58" s="16"/>
@@ -2128,9 +3303,9 @@
       <c r="S58" s="24"/>
       <c r="T58" s="22"/>
     </row>
-    <row r="59" spans="1:20" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20" s="10" customFormat="1" ht="39" customHeight="1">
       <c r="A59" s="29"/>
-      <c r="B59" s="32"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
@@ -2150,9 +3325,9 @@
       <c r="S59" s="24"/>
       <c r="T59" s="22"/>
     </row>
-    <row r="60" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A60" s="29"/>
-      <c r="B60" s="32"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
@@ -2172,9 +3347,9 @@
       <c r="S60" s="24"/>
       <c r="T60" s="22"/>
     </row>
-    <row r="61" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20" s="11" customFormat="1" ht="15">
       <c r="A61" s="29"/>
-      <c r="B61" s="32"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
@@ -2188,15 +3363,15 @@
       <c r="M61" s="20"/>
       <c r="N61" s="18"/>
       <c r="O61" s="20"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="30"/>
       <c r="S61" s="20"/>
       <c r="T61" s="23"/>
     </row>
-    <row r="62" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A62" s="29"/>
-      <c r="B62" s="32"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
@@ -2216,9 +3391,9 @@
       <c r="S62" s="24"/>
       <c r="T62" s="22"/>
     </row>
-    <row r="63" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A63" s="29"/>
-      <c r="B63" s="32"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
@@ -2238,9 +3413,9 @@
       <c r="S63" s="24"/>
       <c r="T63" s="22"/>
     </row>
-    <row r="64" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A64" s="29"/>
-      <c r="B64" s="32"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
@@ -2260,9 +3435,9 @@
       <c r="S64" s="24"/>
       <c r="T64" s="22"/>
     </row>
-    <row r="65" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A65" s="29"/>
-      <c r="B65" s="32"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
@@ -2282,9 +3457,9 @@
       <c r="S65" s="24"/>
       <c r="T65" s="22"/>
     </row>
-    <row r="66" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A66" s="29"/>
-      <c r="B66" s="32"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
@@ -2304,9 +3479,9 @@
       <c r="S66" s="24"/>
       <c r="T66" s="22"/>
     </row>
-    <row r="67" spans="1:20" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:20" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A67" s="29"/>
-      <c r="B67" s="32"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
@@ -2326,9 +3501,9 @@
       <c r="S67" s="24"/>
       <c r="T67" s="22"/>
     </row>
-    <row r="68" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A68" s="29"/>
-      <c r="B68" s="32"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
@@ -2348,9 +3523,9 @@
       <c r="S68" s="24"/>
       <c r="T68" s="22"/>
     </row>
-    <row r="69" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A69" s="29"/>
-      <c r="B69" s="32"/>
+      <c r="B69" s="31"/>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
@@ -2370,9 +3545,9 @@
       <c r="S69" s="24"/>
       <c r="T69" s="22"/>
     </row>
-    <row r="70" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A70" s="29"/>
-      <c r="B70" s="32"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
@@ -2392,9 +3567,9 @@
       <c r="S70" s="24"/>
       <c r="T70" s="22"/>
     </row>
-    <row r="71" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A71" s="29"/>
-      <c r="B71" s="32"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
@@ -2414,9 +3589,9 @@
       <c r="S71" s="24"/>
       <c r="T71" s="22"/>
     </row>
-    <row r="72" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A72" s="29"/>
-      <c r="B72" s="32"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
@@ -2436,9 +3611,9 @@
       <c r="S72" s="24"/>
       <c r="T72" s="22"/>
     </row>
-    <row r="73" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A73" s="29"/>
-      <c r="B73" s="32"/>
+      <c r="B73" s="31"/>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
@@ -2458,9 +3633,9 @@
       <c r="S73" s="24"/>
       <c r="T73" s="22"/>
     </row>
-    <row r="74" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A74" s="29"/>
-      <c r="B74" s="32"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
@@ -2480,9 +3655,9 @@
       <c r="S74" s="24"/>
       <c r="T74" s="22"/>
     </row>
-    <row r="75" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A75" s="29"/>
-      <c r="B75" s="32"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
@@ -2502,9 +3677,9 @@
       <c r="S75" s="24"/>
       <c r="T75" s="22"/>
     </row>
-    <row r="76" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A76" s="29"/>
-      <c r="B76" s="32"/>
+      <c r="B76" s="31"/>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
@@ -2524,9 +3699,9 @@
       <c r="S76" s="24"/>
       <c r="T76" s="22"/>
     </row>
-    <row r="77" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A77" s="29"/>
-      <c r="B77" s="32"/>
+      <c r="B77" s="31"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
@@ -2546,9 +3721,9 @@
       <c r="S77" s="24"/>
       <c r="T77" s="22"/>
     </row>
-    <row r="78" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A78" s="29"/>
-      <c r="B78" s="32"/>
+      <c r="B78" s="31"/>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
@@ -2568,9 +3743,9 @@
       <c r="S78" s="24"/>
       <c r="T78" s="22"/>
     </row>
-    <row r="79" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A79" s="29"/>
-      <c r="B79" s="32"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
@@ -2590,9 +3765,9 @@
       <c r="S79" s="24"/>
       <c r="T79" s="22"/>
     </row>
-    <row r="80" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A80" s="29"/>
-      <c r="B80" s="32"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
@@ -2612,9 +3787,9 @@
       <c r="S80" s="24"/>
       <c r="T80" s="22"/>
     </row>
-    <row r="81" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A81" s="29"/>
-      <c r="B81" s="32"/>
+      <c r="B81" s="31"/>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
@@ -2634,9 +3809,9 @@
       <c r="S81" s="24"/>
       <c r="T81" s="22"/>
     </row>
-    <row r="82" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A82" s="29"/>
-      <c r="B82" s="32"/>
+      <c r="B82" s="31"/>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
@@ -2656,9 +3831,9 @@
       <c r="S82" s="24"/>
       <c r="T82" s="22"/>
     </row>
-    <row r="83" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A83" s="29"/>
-      <c r="B83" s="32"/>
+      <c r="B83" s="31"/>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
@@ -2678,9 +3853,9 @@
       <c r="S83" s="24"/>
       <c r="T83" s="22"/>
     </row>
-    <row r="84" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A84" s="29"/>
-      <c r="B84" s="32"/>
+      <c r="B84" s="31"/>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
@@ -2700,9 +3875,9 @@
       <c r="S84" s="24"/>
       <c r="T84" s="22"/>
     </row>
-    <row r="85" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A85" s="29"/>
-      <c r="B85" s="32"/>
+      <c r="B85" s="31"/>
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
@@ -2722,9 +3897,9 @@
       <c r="S85" s="24"/>
       <c r="T85" s="22"/>
     </row>
-    <row r="86" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A86" s="29"/>
-      <c r="B86" s="32"/>
+      <c r="B86" s="31"/>
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
@@ -2744,9 +3919,9 @@
       <c r="S86" s="24"/>
       <c r="T86" s="22"/>
     </row>
-    <row r="87" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A87" s="29"/>
-      <c r="B87" s="32"/>
+      <c r="B87" s="31"/>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
@@ -2766,16 +3941,16 @@
       <c r="S87" s="24"/>
       <c r="T87" s="22"/>
     </row>
-    <row r="88" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A88" s="29"/>
-      <c r="B88" s="32"/>
+      <c r="B88" s="31"/>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
       <c r="H88" s="18"/>
-      <c r="I88" s="33"/>
+      <c r="I88" s="32"/>
       <c r="J88" s="20"/>
       <c r="K88" s="16"/>
       <c r="L88" s="16"/>
@@ -2785,19 +3960,19 @@
       <c r="P88" s="19"/>
       <c r="Q88" s="19"/>
       <c r="R88" s="19"/>
-      <c r="S88" s="34"/>
+      <c r="S88" s="33"/>
       <c r="T88" s="22"/>
     </row>
-    <row r="89" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:20" s="10" customFormat="1" ht="15">
       <c r="A89" s="29"/>
-      <c r="B89" s="32"/>
+      <c r="B89" s="31"/>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
       <c r="F89" s="18"/>
       <c r="G89" s="18"/>
       <c r="H89" s="18"/>
-      <c r="I89" s="33"/>
+      <c r="I89" s="32"/>
       <c r="J89" s="20"/>
       <c r="K89" s="16"/>
       <c r="L89" s="16"/>
@@ -2807,19 +3982,19 @@
       <c r="P89" s="19"/>
       <c r="Q89" s="19"/>
       <c r="R89" s="19"/>
-      <c r="S89" s="34"/>
+      <c r="S89" s="33"/>
       <c r="T89" s="22"/>
     </row>
-    <row r="90" spans="1:20" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:20" s="8" customFormat="1" ht="15">
       <c r="A90" s="29"/>
-      <c r="B90" s="32"/>
+      <c r="B90" s="31"/>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
-      <c r="I90" s="35"/>
+      <c r="I90" s="34"/>
       <c r="J90" s="20"/>
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
@@ -2832,16 +4007,16 @@
       <c r="S90" s="21"/>
       <c r="T90"/>
     </row>
-    <row r="91" spans="1:20" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:20" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A91" s="29"/>
-      <c r="B91" s="32"/>
+      <c r="B91" s="31"/>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
-      <c r="I91" s="35"/>
+      <c r="I91" s="34"/>
       <c r="J91" s="20"/>
       <c r="K91" s="16"/>
       <c r="L91" s="16"/>
@@ -2854,16 +4029,16 @@
       <c r="S91" s="21"/>
       <c r="T91"/>
     </row>
-    <row r="92" spans="1:20" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:20" s="8" customFormat="1" ht="30" customHeight="1">
       <c r="A92" s="29"/>
-      <c r="B92" s="32"/>
+      <c r="B92" s="31"/>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="18"/>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
-      <c r="I92" s="35"/>
+      <c r="I92" s="34"/>
       <c r="J92" s="20"/>
       <c r="K92" s="16"/>
       <c r="L92" s="16"/>
@@ -2876,16 +4051,16 @@
       <c r="S92" s="21"/>
       <c r="T92"/>
     </row>
-    <row r="93" spans="1:20" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:20" s="8" customFormat="1" ht="15">
       <c r="A93" s="29"/>
-      <c r="B93" s="32"/>
+      <c r="B93" s="31"/>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
-      <c r="I93" s="35"/>
+      <c r="I93" s="34"/>
       <c r="J93" s="20"/>
       <c r="K93" s="16"/>
       <c r="L93" s="16"/>
@@ -2898,16 +4073,16 @@
       <c r="S93" s="21"/>
       <c r="T93"/>
     </row>
-    <row r="94" spans="1:20" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:20" s="8" customFormat="1" ht="15">
       <c r="A94" s="29"/>
-      <c r="B94" s="32"/>
+      <c r="B94" s="31"/>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
       <c r="H94" s="18"/>
-      <c r="I94" s="35"/>
+      <c r="I94" s="34"/>
       <c r="J94" s="20"/>
       <c r="K94" s="16"/>
       <c r="L94" s="16"/>
@@ -2920,16 +4095,16 @@
       <c r="S94" s="21"/>
       <c r="T94"/>
     </row>
-    <row r="95" spans="1:20" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:20" s="8" customFormat="1" ht="15">
       <c r="A95" s="29"/>
-      <c r="B95" s="32"/>
+      <c r="B95" s="31"/>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
-      <c r="I95" s="35"/>
+      <c r="I95" s="34"/>
       <c r="J95" s="20"/>
       <c r="K95" s="16"/>
       <c r="L95" s="16"/>
@@ -2942,16 +4117,16 @@
       <c r="S95" s="21"/>
       <c r="T95"/>
     </row>
-    <row r="96" spans="1:20" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:20" s="8" customFormat="1" ht="15">
       <c r="A96" s="29"/>
-      <c r="B96" s="32"/>
+      <c r="B96" s="31"/>
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
       <c r="F96" s="18"/>
       <c r="G96" s="18"/>
       <c r="H96" s="18"/>
-      <c r="I96" s="35"/>
+      <c r="I96" s="34"/>
       <c r="J96" s="20"/>
       <c r="K96" s="16"/>
       <c r="L96" s="16"/>
@@ -2964,7 +4139,7 @@
       <c r="S96" s="21"/>
       <c r="T96"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="25"/>
       <c r="B97" s="26"/>
       <c r="C97" s="25"/>
@@ -2985,7 +4160,7 @@
       <c r="R97" s="25"/>
       <c r="S97" s="26"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="25"/>
       <c r="B98" s="26"/>
       <c r="C98" s="25"/>
@@ -3006,7 +4181,7 @@
       <c r="R98" s="25"/>
       <c r="S98" s="26"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="25"/>
       <c r="B99" s="26"/>
       <c r="C99" s="25"/>
@@ -3027,7 +4202,7 @@
       <c r="R99" s="25"/>
       <c r="S99" s="26"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="25"/>
       <c r="B100" s="26"/>
       <c r="C100" s="25"/>
@@ -3048,7 +4223,7 @@
       <c r="R100" s="25"/>
       <c r="S100" s="26"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="25"/>
       <c r="B101" s="26"/>
       <c r="C101" s="25"/>
@@ -3069,7 +4244,7 @@
       <c r="R101" s="25"/>
       <c r="S101" s="26"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="25"/>
       <c r="B102" s="26"/>
       <c r="C102" s="25"/>
@@ -3090,7 +4265,7 @@
       <c r="R102" s="25"/>
       <c r="S102" s="26"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="25"/>
       <c r="B103" s="26"/>
       <c r="C103" s="25"/>
@@ -3111,7 +4286,7 @@
       <c r="R103" s="25"/>
       <c r="S103" s="26"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="25"/>
       <c r="B104" s="26"/>
       <c r="C104" s="25"/>
@@ -3132,7 +4307,7 @@
       <c r="R104" s="25"/>
       <c r="S104" s="26"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="25"/>
       <c r="B105" s="26"/>
       <c r="C105" s="25"/>
@@ -3153,7 +4328,7 @@
       <c r="R105" s="25"/>
       <c r="S105" s="26"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="25"/>
       <c r="B106" s="26"/>
       <c r="C106" s="25"/>
@@ -3174,7 +4349,7 @@
       <c r="R106" s="25"/>
       <c r="S106" s="26"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="25"/>
       <c r="B107" s="26"/>
       <c r="C107" s="25"/>
@@ -3195,7 +4370,7 @@
       <c r="R107" s="25"/>
       <c r="S107" s="26"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="25"/>
       <c r="B108" s="26"/>
       <c r="C108" s="25"/>
@@ -3216,7 +4391,7 @@
       <c r="R108" s="25"/>
       <c r="S108" s="26"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="25"/>
       <c r="B109" s="26"/>
       <c r="C109" s="25"/>
@@ -3237,7 +4412,7 @@
       <c r="R109" s="25"/>
       <c r="S109" s="26"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="25"/>
       <c r="B110" s="26"/>
       <c r="C110" s="25"/>
@@ -3258,7 +4433,7 @@
       <c r="R110" s="25"/>
       <c r="S110" s="26"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="25"/>
       <c r="B111" s="26"/>
       <c r="C111" s="25"/>
@@ -3279,7 +4454,7 @@
       <c r="R111" s="25"/>
       <c r="S111" s="26"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="25"/>
       <c r="B112" s="26"/>
       <c r="C112" s="25"/>
@@ -3300,7 +4475,7 @@
       <c r="R112" s="25"/>
       <c r="S112" s="26"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="25"/>
       <c r="B113" s="26"/>
       <c r="C113" s="25"/>
@@ -3321,7 +4496,7 @@
       <c r="R113" s="25"/>
       <c r="S113" s="26"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="25"/>
       <c r="B114" s="26"/>
       <c r="C114" s="25"/>
@@ -3342,7 +4517,7 @@
       <c r="R114" s="25"/>
       <c r="S114" s="26"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="25"/>
       <c r="B115" s="26"/>
       <c r="C115" s="25"/>
@@ -3363,7 +4538,7 @@
       <c r="R115" s="25"/>
       <c r="S115" s="26"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="25"/>
       <c r="B116" s="26"/>
       <c r="C116" s="25"/>
@@ -3384,7 +4559,7 @@
       <c r="R116" s="25"/>
       <c r="S116" s="26"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="25"/>
       <c r="B117" s="26"/>
       <c r="C117" s="25"/>
@@ -3405,7 +4580,7 @@
       <c r="R117" s="25"/>
       <c r="S117" s="26"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="25"/>
       <c r="B118" s="26"/>
       <c r="C118" s="25"/>
@@ -3426,7 +4601,7 @@
       <c r="R118" s="25"/>
       <c r="S118" s="26"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="25"/>
       <c r="B119" s="26"/>
       <c r="C119" s="25"/>
@@ -3447,7 +4622,7 @@
       <c r="R119" s="25"/>
       <c r="S119" s="26"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="25"/>
       <c r="B120" s="26"/>
       <c r="C120" s="25"/>
@@ -3468,7 +4643,7 @@
       <c r="R120" s="25"/>
       <c r="S120" s="26"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="25"/>
       <c r="B121" s="26"/>
       <c r="C121" s="25"/>
@@ -3489,7 +4664,7 @@
       <c r="R121" s="25"/>
       <c r="S121" s="26"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="25"/>
       <c r="B122" s="26"/>
       <c r="C122" s="25"/>
@@ -3510,7 +4685,7 @@
       <c r="R122" s="25"/>
       <c r="S122" s="26"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="25"/>
       <c r="B123" s="26"/>
       <c r="C123" s="25"/>
@@ -3531,7 +4706,7 @@
       <c r="R123" s="25"/>
       <c r="S123" s="26"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="25"/>
       <c r="B124" s="26"/>
       <c r="C124" s="25"/>
@@ -3552,7 +4727,7 @@
       <c r="R124" s="25"/>
       <c r="S124" s="26"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="25"/>
       <c r="B125" s="26"/>
       <c r="C125" s="25"/>
@@ -3573,7 +4748,7 @@
       <c r="R125" s="25"/>
       <c r="S125" s="26"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="25"/>
       <c r="B126" s="26"/>
       <c r="C126" s="25"/>
@@ -3594,7 +4769,7 @@
       <c r="R126" s="25"/>
       <c r="S126" s="26"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="25"/>
       <c r="B127" s="26"/>
       <c r="C127" s="25"/>
@@ -3615,7 +4790,7 @@
       <c r="R127" s="25"/>
       <c r="S127" s="26"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="25"/>
       <c r="B128" s="26"/>
       <c r="C128" s="25"/>
@@ -3636,7 +4811,7 @@
       <c r="R128" s="25"/>
       <c r="S128" s="26"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="25"/>
       <c r="B129" s="26"/>
       <c r="C129" s="25"/>
@@ -3657,7 +4832,7 @@
       <c r="R129" s="25"/>
       <c r="S129" s="26"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="25"/>
       <c r="B130" s="26"/>
       <c r="C130" s="25"/>
@@ -3678,7 +4853,7 @@
       <c r="R130" s="25"/>
       <c r="S130" s="26"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="25"/>
       <c r="B131" s="26"/>
       <c r="C131" s="25"/>
@@ -3699,7 +4874,7 @@
       <c r="R131" s="25"/>
       <c r="S131" s="26"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="25"/>
       <c r="B132" s="26"/>
       <c r="C132" s="25"/>
@@ -3720,7 +4895,7 @@
       <c r="R132" s="25"/>
       <c r="S132" s="26"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="25"/>
       <c r="B133" s="26"/>
       <c r="C133" s="25"/>
@@ -3741,7 +4916,7 @@
       <c r="R133" s="25"/>
       <c r="S133" s="26"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="25"/>
       <c r="B134" s="26"/>
       <c r="C134" s="25"/>
@@ -3762,7 +4937,7 @@
       <c r="R134" s="25"/>
       <c r="S134" s="26"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="25"/>
       <c r="B135" s="26"/>
       <c r="C135" s="25"/>
@@ -3783,7 +4958,7 @@
       <c r="R135" s="25"/>
       <c r="S135" s="26"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="25"/>
       <c r="B136" s="26"/>
       <c r="C136" s="25"/>
@@ -3804,7 +4979,7 @@
       <c r="R136" s="25"/>
       <c r="S136" s="26"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="25"/>
       <c r="B137" s="26"/>
       <c r="C137" s="25"/>
@@ -3825,7 +5000,7 @@
       <c r="R137" s="25"/>
       <c r="S137" s="26"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="25"/>
       <c r="B138" s="26"/>
       <c r="C138" s="25"/>
@@ -3846,7 +5021,7 @@
       <c r="R138" s="25"/>
       <c r="S138" s="26"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="25"/>
       <c r="B139" s="26"/>
       <c r="C139" s="25"/>
@@ -3867,7 +5042,7 @@
       <c r="R139" s="25"/>
       <c r="S139" s="26"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="25"/>
       <c r="B140" s="26"/>
       <c r="C140" s="25"/>
@@ -3885,7 +5060,7 @@
       <c r="O140" s="26"/>
       <c r="S140" s="26"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="25"/>
       <c r="B141" s="26"/>
       <c r="C141" s="25"/>
@@ -3903,7 +5078,7 @@
       <c r="O141" s="26"/>
       <c r="S141" s="26"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="25"/>
       <c r="B142" s="26"/>
       <c r="C142" s="25"/>
@@ -3921,7 +5096,7 @@
       <c r="O142" s="26"/>
       <c r="S142" s="26"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="25"/>
       <c r="B143" s="26"/>
       <c r="C143" s="25"/>
@@ -3939,7 +5114,7 @@
       <c r="O143" s="26"/>
       <c r="S143" s="26"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="25"/>
       <c r="B144" s="26"/>
       <c r="C144" s="25"/>
@@ -3957,7 +5132,7 @@
       <c r="O144" s="26"/>
       <c r="S144" s="26"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="25"/>
       <c r="B145" s="26"/>
       <c r="C145" s="25"/>
@@ -3975,7 +5150,7 @@
       <c r="O145" s="26"/>
       <c r="S145" s="26"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="25"/>
       <c r="B146" s="26"/>
       <c r="C146" s="25"/>
@@ -3993,7 +5168,7 @@
       <c r="O146" s="26"/>
       <c r="S146" s="26"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="25"/>
       <c r="B147" s="26"/>
       <c r="C147" s="25"/>
@@ -4011,7 +5186,7 @@
       <c r="O147" s="26"/>
       <c r="S147" s="26"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="25"/>
       <c r="B148" s="26"/>
       <c r="C148" s="25"/>
@@ -4029,7 +5204,7 @@
       <c r="O148" s="26"/>
       <c r="S148" s="26"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="25"/>
       <c r="B149" s="26"/>
       <c r="C149" s="25"/>
@@ -4047,7 +5222,7 @@
       <c r="O149" s="26"/>
       <c r="S149" s="26"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="25"/>
       <c r="B150" s="26"/>
       <c r="C150" s="25"/>
@@ -4065,7 +5240,7 @@
       <c r="O150" s="26"/>
       <c r="S150" s="26"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="25"/>
       <c r="B151" s="26"/>
       <c r="C151" s="25"/>
@@ -4083,7 +5258,7 @@
       <c r="O151" s="26"/>
       <c r="S151" s="26"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="25"/>
       <c r="B152" s="26"/>
       <c r="C152" s="25"/>
@@ -4101,7 +5276,7 @@
       <c r="O152" s="26"/>
       <c r="S152" s="26"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="25"/>
       <c r="B153" s="26"/>
       <c r="C153" s="25"/>
@@ -4119,7 +5294,7 @@
       <c r="O153" s="26"/>
       <c r="S153" s="26"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="25"/>
       <c r="B154" s="26"/>
       <c r="C154" s="25"/>
@@ -4137,7 +5312,7 @@
       <c r="O154" s="26"/>
       <c r="S154" s="26"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="25"/>
       <c r="B155" s="26"/>
       <c r="C155" s="25"/>
@@ -4155,7 +5330,7 @@
       <c r="O155" s="26"/>
       <c r="S155" s="26"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="25"/>
       <c r="B156" s="26"/>
       <c r="C156" s="25"/>
@@ -4173,7 +5348,7 @@
       <c r="O156" s="26"/>
       <c r="S156" s="26"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="25"/>
       <c r="B157" s="26"/>
       <c r="C157" s="25"/>
@@ -4191,7 +5366,7 @@
       <c r="O157" s="26"/>
       <c r="S157" s="26"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="25"/>
       <c r="B158" s="26"/>
       <c r="C158" s="25"/>
@@ -4209,7 +5384,7 @@
       <c r="O158" s="26"/>
       <c r="S158" s="26"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="25"/>
       <c r="B159" s="26"/>
       <c r="C159" s="25"/>
@@ -4227,7 +5402,7 @@
       <c r="O159" s="26"/>
       <c r="S159" s="26"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="25"/>
       <c r="B160" s="26"/>
       <c r="C160" s="25"/>
@@ -4245,7 +5420,7 @@
       <c r="O160" s="26"/>
       <c r="S160" s="26"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="25"/>
       <c r="B161" s="26"/>
       <c r="C161" s="25"/>
@@ -4263,7 +5438,7 @@
       <c r="O161" s="26"/>
       <c r="S161" s="26"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="25"/>
       <c r="B162" s="26"/>
       <c r="C162" s="25"/>
@@ -4281,7 +5456,7 @@
       <c r="O162" s="26"/>
       <c r="S162" s="26"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="25"/>
       <c r="B163" s="26"/>
       <c r="C163" s="25"/>
@@ -4299,7 +5474,7 @@
       <c r="O163" s="26"/>
       <c r="S163" s="26"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="25"/>
       <c r="B164" s="26"/>
       <c r="C164" s="25"/>
@@ -4317,7 +5492,7 @@
       <c r="O164" s="26"/>
       <c r="S164" s="26"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="25"/>
       <c r="B165" s="26"/>
       <c r="C165" s="25"/>
@@ -4335,7 +5510,7 @@
       <c r="O165" s="26"/>
       <c r="S165" s="26"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="25"/>
       <c r="B166" s="26"/>
       <c r="C166" s="25"/>
@@ -4353,7 +5528,7 @@
       <c r="O166" s="26"/>
       <c r="S166" s="26"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="25"/>
       <c r="B167" s="26"/>
       <c r="C167" s="25"/>
@@ -4371,7 +5546,7 @@
       <c r="O167" s="26"/>
       <c r="S167" s="26"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="25"/>
       <c r="B168" s="26"/>
       <c r="C168" s="25"/>
@@ -4389,7 +5564,7 @@
       <c r="O168" s="26"/>
       <c r="S168" s="26"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="25"/>
       <c r="B169" s="26"/>
       <c r="C169" s="25"/>
@@ -4407,7 +5582,7 @@
       <c r="O169" s="26"/>
       <c r="S169" s="26"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="25"/>
       <c r="B170" s="26"/>
       <c r="C170" s="25"/>
@@ -4425,7 +5600,7 @@
       <c r="O170" s="26"/>
       <c r="S170" s="26"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="25"/>
       <c r="B171" s="26"/>
       <c r="C171" s="25"/>
@@ -4443,7 +5618,7 @@
       <c r="O171" s="26"/>
       <c r="S171" s="26"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="25"/>
       <c r="B172" s="26"/>
       <c r="C172" s="25"/>
@@ -4461,7 +5636,7 @@
       <c r="O172" s="26"/>
       <c r="S172" s="26"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="25"/>
       <c r="B173" s="26"/>
       <c r="C173" s="25"/>
@@ -4479,7 +5654,7 @@
       <c r="O173" s="26"/>
       <c r="S173" s="26"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="25"/>
       <c r="B174" s="26"/>
       <c r="C174" s="25"/>
@@ -4498,6 +5673,7 @@
       <c r="S174" s="26"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T31"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4512,18 +5688,18 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -4549,7 +5725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4559,7 +5735,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -4569,7 +5745,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -4579,7 +5755,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -4589,7 +5765,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -4599,7 +5775,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -4609,7 +5785,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -4619,7 +5795,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -4629,7 +5805,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -4639,7 +5815,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4649,7 +5825,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4659,7 +5835,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4669,7 +5845,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -4679,7 +5855,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -4689,7 +5865,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -4699,7 +5875,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -4709,7 +5885,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -4719,7 +5895,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
